--- a/Test/Lawnmower/T2/Sensors_data_1000029.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000029.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9894357281307435</v>
+        <v>0.9864505295585778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003590344023718026</v>
+        <v>0.0005574887492752603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02150774129230637</v>
+        <v>0.08778760169894156</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,18 +500,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.871106781590907</v>
+        <v>0.9731460096251652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07308536873673178</v>
+        <v>0.0009126522400076691</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4526476194566916</v>
+        <v>0.02422211817451903</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.871106781590907</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07308536873673178</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4526476194566916</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
